--- a/Team-Data/2014-15/11-23-2014-15.xlsx
+++ b/Team-Data/2014-15/11-23-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>-0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>14</v>
@@ -759,22 +826,22 @@
         <v>4</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL2" t="n">
         <v>8</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>9</v>
       </c>
       <c r="AM2" t="n">
         <v>9</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
         <v>16</v>
@@ -783,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
@@ -795,25 +862,25 @@
         <v>26</v>
       </c>
       <c r="AU2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -848,100 +915,100 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.333</v>
+        <v>0.364</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>41.5</v>
+        <v>41.9</v>
       </c>
       <c r="J3" t="n">
-        <v>88</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.472</v>
+        <v>0.48</v>
       </c>
       <c r="L3" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="M3" t="n">
         <v>23.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3</v>
+        <v>0.308</v>
       </c>
       <c r="O3" t="n">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="P3" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R3" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T3" t="n">
-        <v>42.7</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="V3" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="X3" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.7</v>
+        <v>106.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ3" t="n">
         <v>1</v>
@@ -950,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
         <v>10</v>
@@ -959,49 +1026,49 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS3" t="n">
         <v>15</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
         <v>1</v>
       </c>
       <c r="AV3" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-1</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG4" t="n">
         <v>20</v>
@@ -1123,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
@@ -1135,16 +1202,16 @@
         <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>3</v>
@@ -1153,10 +1220,10 @@
         <v>23</v>
       </c>
       <c r="AS4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU4" t="n">
         <v>23</v>
@@ -1171,13 +1238,13 @@
         <v>18</v>
       </c>
       <c r="AY4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB4" t="n">
         <v>16</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -1212,103 +1279,103 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.286</v>
+        <v>0.308</v>
       </c>
       <c r="H5" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I5" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J5" t="n">
-        <v>83.40000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>17.9</v>
+        <v>17.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O5" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="P5" t="n">
-        <v>21.6</v>
+        <v>22</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.715</v>
+        <v>0.713</v>
       </c>
       <c r="R5" t="n">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="S5" t="n">
-        <v>32.1</v>
+        <v>32.5</v>
       </c>
       <c r="T5" t="n">
-        <v>41.7</v>
+        <v>42.4</v>
       </c>
       <c r="U5" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="V5" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="W5" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z5" t="n">
         <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.7</v>
+        <v>22.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-5.1</v>
+        <v>-5.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
         <v>24</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
@@ -1317,55 +1384,55 @@
         <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN5" t="n">
         <v>19</v>
       </c>
       <c r="AO5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>26</v>
       </c>
-      <c r="AP5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>25</v>
-      </c>
       <c r="AR5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT5" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
         <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
         <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>2</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>10</v>
@@ -1490,7 +1557,7 @@
         <v>18</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
         <v>14</v>
@@ -1502,16 +1569,16 @@
         <v>20</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR6" t="n">
         <v>21</v>
@@ -1526,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>24</v>
@@ -1535,19 +1602,19 @@
         <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB6" t="n">
         <v>15</v>
       </c>
       <c r="BC6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -1657,13 +1724,13 @@
         <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
         <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>7</v>
@@ -1684,19 +1751,19 @@
         <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
         <v>4</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ7" t="n">
         <v>8</v>
       </c>
       <c r="AR7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS7" t="n">
         <v>19</v>
@@ -1708,22 +1775,22 @@
         <v>14</v>
       </c>
       <c r="AV7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW7" t="n">
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -1758,67 +1825,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.769</v>
+        <v>0.714</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.489</v>
       </c>
       <c r="L8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O8" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="P8" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.786</v>
+        <v>0.789</v>
       </c>
       <c r="R8" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="S8" t="n">
-        <v>31.1</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>41.5</v>
       </c>
       <c r="U8" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="V8" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="W8" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X8" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y8" t="n">
         <v>3.2</v>
@@ -1827,40 +1894,40 @@
         <v>20.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.7</v>
+        <v>109.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>12.1</v>
+        <v>11.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>3</v>
       </c>
       <c r="AF8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL8" t="n">
         <v>4</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>3</v>
       </c>
       <c r="AM8" t="n">
         <v>2</v>
@@ -1872,28 +1939,28 @@
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
         <v>5</v>
@@ -1902,10 +1969,10 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -1940,88 +2007,88 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.462</v>
+        <v>0.417</v>
       </c>
       <c r="H9" t="n">
-        <v>48.4</v>
+        <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>37.4</v>
+        <v>37.7</v>
       </c>
       <c r="J9" t="n">
-        <v>85.7</v>
+        <v>85.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.436</v>
+        <v>0.441</v>
       </c>
       <c r="L9" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>26.5</v>
+        <v>25.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="O9" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="P9" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.735</v>
+        <v>0.752</v>
       </c>
       <c r="R9" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S9" t="n">
-        <v>32.3</v>
+        <v>31.4</v>
       </c>
       <c r="T9" t="n">
-        <v>44.2</v>
+        <v>43.1</v>
       </c>
       <c r="U9" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V9" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="W9" t="n">
         <v>6.7</v>
       </c>
       <c r="X9" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Y9" t="n">
         <v>5.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.4</v>
+        <v>21.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.1</v>
+        <v>103.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.7</v>
+        <v>-2.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
@@ -2030,43 +2097,43 @@
         <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN9" t="n">
         <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AS9" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AT9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2075,10 +2142,10 @@
         <v>9</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY9" t="n">
         <v>23</v>
@@ -2087,13 +2154,13 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BB9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-4.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
         <v>27</v>
@@ -2230,13 +2297,13 @@
         <v>12</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
         <v>24</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2245,7 +2312,7 @@
         <v>4</v>
       </c>
       <c r="AS10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2260,16 +2327,16 @@
         <v>29</v>
       </c>
       <c r="AX10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -2304,88 +2371,88 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.833</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>39.5</v>
+        <v>40.1</v>
       </c>
       <c r="J11" t="n">
-        <v>81.40000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.485</v>
+        <v>0.499</v>
       </c>
       <c r="L11" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M11" t="n">
         <v>25.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.377</v>
+        <v>0.386</v>
       </c>
       <c r="O11" t="n">
         <v>18</v>
       </c>
       <c r="P11" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.797</v>
+        <v>0.802</v>
       </c>
       <c r="R11" t="n">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>35.8</v>
+        <v>35.5</v>
       </c>
       <c r="T11" t="n">
-        <v>44.5</v>
+        <v>43.8</v>
       </c>
       <c r="U11" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="V11" t="n">
-        <v>18.3</v>
+        <v>19.1</v>
       </c>
       <c r="W11" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>106.5</v>
+        <v>107.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
@@ -2394,34 +2461,34 @@
         <v>3</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR11" t="n">
         <v>28</v>
@@ -2433,28 +2500,28 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AW11" t="n">
         <v>9</v>
       </c>
       <c r="AX11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY11" t="n">
         <v>1</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AZ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB11" t="n">
         <v>2</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>25</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>3</v>
       </c>
       <c r="BC11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -2486,97 +2553,97 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0.75</v>
+        <v>0.769</v>
       </c>
       <c r="H12" t="n">
         <v>48</v>
       </c>
       <c r="I12" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="J12" t="n">
-        <v>77.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.419</v>
+        <v>0.42</v>
       </c>
       <c r="L12" t="n">
         <v>12</v>
       </c>
       <c r="M12" t="n">
-        <v>34.7</v>
+        <v>34.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.351</v>
       </c>
       <c r="O12" t="n">
-        <v>18.9</v>
+        <v>20.1</v>
       </c>
       <c r="P12" t="n">
-        <v>26.5</v>
+        <v>28.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.714</v>
+        <v>0.709</v>
       </c>
       <c r="R12" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="V12" t="n">
-        <v>19</v>
+        <v>18.6</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.8</v>
+        <v>23.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.7</v>
+        <v>22.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>30</v>
@@ -2585,7 +2652,7 @@
         <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,49 +2661,49 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR12" t="n">
         <v>5</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT12" t="n">
         <v>7</v>
       </c>
-      <c r="AS12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>8</v>
-      </c>
       <c r="AU12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BB12" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BC12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-3.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
         <v>20</v>
@@ -2770,16 +2837,16 @@
         <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP13" t="n">
         <v>28</v>
@@ -2800,7 +2867,7 @@
         <v>30</v>
       </c>
       <c r="AV13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
         <v>30</v>
@@ -2809,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
         <v>7</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -2850,115 +2917,115 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.583</v>
+        <v>0.636</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>37.1</v>
+        <v>37.5</v>
       </c>
       <c r="J14" t="n">
-        <v>79.3</v>
+        <v>79.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.468</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M14" t="n">
         <v>24.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.369</v>
       </c>
       <c r="O14" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P14" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.752</v>
+        <v>0.756</v>
       </c>
       <c r="R14" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="S14" t="n">
-        <v>30.2</v>
+        <v>30.5</v>
       </c>
       <c r="T14" t="n">
-        <v>36.9</v>
+        <v>37.4</v>
       </c>
       <c r="U14" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="W14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>3.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.8</v>
+        <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>102.4</v>
+        <v>103.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI14" t="n">
         <v>12</v>
       </c>
-      <c r="AH14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>16</v>
-      </c>
       <c r="AJ14" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM14" t="n">
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
@@ -2967,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>30</v>
@@ -2979,32 +3046,32 @@
         <v>29</v>
       </c>
       <c r="AU14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX14" t="n">
         <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>4</v>
       </c>
       <c r="AZ14" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
       </c>
       <c r="BB14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC14" t="n">
         <v>11</v>
       </c>
-      <c r="BC14" t="n">
-        <v>13</v>
-      </c>
       <c r="BD14" t="n">
         <v>10</v>
       </c>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -3044,13 +3111,13 @@
         <v>0.231</v>
       </c>
       <c r="H15" t="n">
-        <v>48.4</v>
+        <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
       <c r="J15" t="n">
-        <v>86.40000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.446</v>
@@ -3059,76 +3126,76 @@
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>17.3</v>
+        <v>16.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.289</v>
+        <v>0.308</v>
       </c>
       <c r="O15" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="P15" t="n">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.751</v>
       </c>
       <c r="R15" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S15" t="n">
-        <v>28.9</v>
+        <v>27.7</v>
       </c>
       <c r="T15" t="n">
-        <v>42</v>
+        <v>40.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V15" t="n">
         <v>12.6</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="X15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y15" t="n">
         <v>3.9</v>
       </c>
-      <c r="Y15" t="n">
-        <v>3.8</v>
-      </c>
       <c r="Z15" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.9</v>
+        <v>102.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-9</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK15" t="n">
         <v>20</v>
@@ -3140,7 +3207,7 @@
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
         <v>3</v>
@@ -3155,37 +3222,37 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AU15" t="n">
         <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW15" t="n">
         <v>15</v>
       </c>
       <c r="AX15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>24</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>4</v>
       </c>
       <c r="BB15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -3214,85 +3281,85 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0.857</v>
+        <v>0.846</v>
       </c>
       <c r="H16" t="n">
         <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="J16" t="n">
-        <v>81.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.377</v>
+        <v>0.382</v>
       </c>
       <c r="O16" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="P16" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.796</v>
+        <v>0.803</v>
       </c>
       <c r="R16" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S16" t="n">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42.6</v>
+        <v>41.8</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V16" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="W16" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
         <v>3.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>1</v>
@@ -3304,64 +3371,64 @@
         <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
         <v>17</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM16" t="n">
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP16" t="n">
         <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AR16" t="n">
         <v>11</v>
       </c>
       <c r="AS16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT16" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AU16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA16" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BB16" t="n">
         <v>17</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -3396,97 +3463,97 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.571</v>
+        <v>0.538</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J17" t="n">
-        <v>73.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.47</v>
+        <v>0.468</v>
       </c>
       <c r="L17" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="M17" t="n">
         <v>23.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.388</v>
+        <v>0.381</v>
       </c>
       <c r="O17" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P17" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.759</v>
+        <v>0.752</v>
       </c>
       <c r="R17" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="U17" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="AC17" t="n">
         <v>0.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
         <v>15</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
         <v>25</v>
@@ -3495,31 +3562,31 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM17" t="n">
         <v>11</v>
       </c>
       <c r="AN17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,25 +3595,25 @@
         <v>13</v>
       </c>
       <c r="AV17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA17" t="n">
         <v>17</v>
       </c>
-      <c r="AW17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA17" t="n">
+      <c r="BB17" t="n">
         <v>19</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>20</v>
       </c>
       <c r="BC17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3726,7 @@
         <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
         <v>16</v>
@@ -3677,7 +3744,7 @@
         <v>11</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
@@ -3686,19 +3753,19 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS18" t="n">
         <v>20</v>
@@ -3722,7 +3789,7 @@
         <v>21</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3911,7 @@
         <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG19" t="n">
         <v>26</v>
@@ -3853,37 +3920,37 @@
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ19" t="n">
         <v>5</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM19" t="n">
         <v>28</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
         <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT19" t="n">
         <v>23</v>
@@ -3892,19 +3959,19 @@
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA19" t="n">
         <v>3</v>
@@ -3913,7 +3980,7 @@
         <v>14</v>
       </c>
       <c r="BC19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -3942,160 +4009,160 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.545</v>
+        <v>0.583</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="J20" t="n">
-        <v>85</v>
+        <v>86.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.467</v>
+        <v>0.461</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="M20" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.366</v>
+        <v>0.357</v>
       </c>
       <c r="O20" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.1</v>
+        <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.782</v>
+        <v>0.748</v>
       </c>
       <c r="R20" t="n">
-        <v>10.3</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>30.5</v>
+        <v>30.9</v>
       </c>
       <c r="T20" t="n">
-        <v>40.7</v>
+        <v>42.5</v>
       </c>
       <c r="U20" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="V20" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.1</v>
+        <v>19.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>104.2</v>
+        <v>103.9</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH20" t="n">
         <v>15</v>
       </c>
-      <c r="AF20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>17</v>
-      </c>
       <c r="AI20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO20" t="n">
         <v>19</v>
       </c>
       <c r="AP20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>21</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>12</v>
-      </c>
       <c r="AR20" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>9</v>
       </c>
       <c r="AV20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BA20" t="n">
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -4208,28 +4275,28 @@
         <v>23</v>
       </c>
       <c r="AF21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG21" t="n">
         <v>25</v>
       </c>
-      <c r="AG21" t="n">
-        <v>24</v>
-      </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN21" t="n">
         <v>1</v>
@@ -4244,10 +4311,10 @@
         <v>9</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT21" t="n">
         <v>28</v>
@@ -4262,10 +4329,10 @@
         <v>22</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2</v>
+        <v>0.214</v>
       </c>
       <c r="H22" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="J22" t="n">
-        <v>80.09999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.416</v>
+        <v>0.421</v>
       </c>
       <c r="L22" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="M22" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.313</v>
+        <v>0.32</v>
       </c>
       <c r="O22" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="P22" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="Q22" t="n">
         <v>0.712</v>
       </c>
       <c r="R22" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>32.5</v>
+        <v>31.6</v>
       </c>
       <c r="T22" t="n">
-        <v>43.3</v>
+        <v>42.4</v>
       </c>
       <c r="U22" t="n">
-        <v>18.6</v>
+        <v>19</v>
       </c>
       <c r="V22" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="X22" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z22" t="n">
         <v>22.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>89.59999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.3</v>
+        <v>-5.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,70 +4463,70 @@
         <v>29</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>28</v>
       </c>
       <c r="AJ22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN22" t="n">
         <v>24</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>26</v>
       </c>
       <c r="AO22" t="n">
         <v>23</v>
       </c>
       <c r="AP22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="n">
         <v>27</v>
       </c>
       <c r="AR22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS22" t="n">
         <v>13</v>
       </c>
-      <c r="AS22" t="n">
-        <v>11</v>
-      </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AU22" t="n">
         <v>28</v>
       </c>
       <c r="AV22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AY22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ22" t="n">
         <v>22</v>
       </c>
-      <c r="AZ22" t="n">
-        <v>21</v>
-      </c>
       <c r="BA22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
       </c>
       <c r="BC22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -4488,160 +4555,160 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>0.429</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.9</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>80.59999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.469</v>
+        <v>0.463</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>18.1</v>
+        <v>17.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="P23" t="n">
         <v>21</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.711</v>
+        <v>0.714</v>
       </c>
       <c r="R23" t="n">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="S23" t="n">
-        <v>33.1</v>
+        <v>33.5</v>
       </c>
       <c r="T23" t="n">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="W23" t="n">
         <v>6.1</v>
       </c>
       <c r="X23" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>97.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG23" t="n">
         <v>19</v>
       </c>
-      <c r="AG23" t="n">
-        <v>18</v>
-      </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN23" t="n">
         <v>4</v>
       </c>
       <c r="AO23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP23" t="n">
         <v>27</v>
       </c>
-      <c r="AP23" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT23" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AU23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
         <v>25</v>
       </c>
       <c r="AX23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AY23" t="n">
         <v>29</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>28</v>
       </c>
       <c r="AZ23" t="n">
         <v>17</v>
       </c>
       <c r="BA23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BB23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-16.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4760,13 +4827,13 @@
         <v>30</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
         <v>29</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -4778,19 +4845,19 @@
         <v>8</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO24" t="n">
         <v>25</v>
       </c>
       <c r="AP24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4811,7 +4878,7 @@
         <v>15</v>
       </c>
       <c r="AY24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ24" t="n">
         <v>20</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -4933,10 +5000,10 @@
         <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
         <v>9</v>
@@ -4951,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>6</v>
@@ -4960,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
         <v>12</v>
@@ -4975,7 +5042,7 @@
         <v>22</v>
       </c>
       <c r="AS25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT25" t="n">
         <v>10</v>
@@ -4984,16 +5051,16 @@
         <v>21</v>
       </c>
       <c r="AV25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW25" t="n">
         <v>12</v>
       </c>
       <c r="AX25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ25" t="n">
         <v>27</v>
@@ -5002,10 +5069,10 @@
         <v>14</v>
       </c>
       <c r="BB25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -5034,127 +5101,127 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.769</v>
+        <v>0.75</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J26" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K26" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="M26" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="N26" t="n">
-        <v>0.396</v>
+        <v>0.397</v>
       </c>
       <c r="O26" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="P26" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="R26" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="S26" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="T26" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="U26" t="n">
+        <v>24</v>
+      </c>
+      <c r="V26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z26" t="n">
         <v>20.8</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R26" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="S26" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="T26" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="U26" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="V26" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="W26" t="n">
-        <v>6</v>
-      </c>
-      <c r="X26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>20.2</v>
-      </c>
       <c r="AA26" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>103.6</v>
+        <v>104.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
         <v>4</v>
       </c>
       <c r="AG26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ26" t="n">
         <v>8</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>2</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AR26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS26" t="n">
         <v>2</v>
@@ -5163,28 +5230,28 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY26" t="n">
         <v>5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
         <v>5</v>
@@ -5312,10 +5379,10 @@
         <v>23</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>30</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5336,7 +5403,7 @@
         <v>2</v>
       </c>
       <c r="AR27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS27" t="n">
         <v>4</v>
@@ -5354,7 +5421,7 @@
         <v>23</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY27" t="n">
         <v>30</v>
@@ -5366,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
@@ -5416,109 +5483,109 @@
         <v>36.2</v>
       </c>
       <c r="J28" t="n">
-        <v>80.90000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.447</v>
+        <v>0.452</v>
       </c>
       <c r="L28" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="M28" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.333</v>
+        <v>0.35</v>
       </c>
       <c r="O28" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="P28" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.788</v>
+        <v>0.789</v>
       </c>
       <c r="R28" t="n">
         <v>9.4</v>
       </c>
       <c r="S28" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="T28" t="n">
-        <v>44.8</v>
+        <v>44.2</v>
       </c>
       <c r="U28" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V28" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
         <v>8</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
         <v>22</v>
       </c>
       <c r="AJ28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO28" t="n">
         <v>20</v>
       </c>
-      <c r="AK28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>18</v>
-      </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AQ28" t="n">
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS28" t="n">
         <v>3</v>
@@ -5527,25 +5594,25 @@
         <v>5</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB28" t="n">
         <v>21</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5725,22 @@
         <v>12.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF29" t="n">
         <v>1</v>
       </c>
       <c r="AG29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ29" t="n">
         <v>12</v>
@@ -5688,7 +5755,7 @@
         <v>14</v>
       </c>
       <c r="AN29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>2</v>
@@ -5697,7 +5764,7 @@
         <v>2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR29" t="n">
         <v>20</v>
@@ -5709,19 +5776,19 @@
         <v>25</v>
       </c>
       <c r="AU29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ29" t="n">
         <v>19</v>
@@ -5730,7 +5797,7 @@
         <v>2</v>
       </c>
       <c r="BB29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC29" t="n">
         <v>1</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -5843,16 +5910,16 @@
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG30" t="n">
         <v>23</v>
       </c>
-      <c r="AG30" t="n">
-        <v>22</v>
-      </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
         <v>24</v>
@@ -5867,10 +5934,10 @@
         <v>17</v>
       </c>
       <c r="AM30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
         <v>14</v>
@@ -5879,7 +5946,7 @@
         <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>14</v>
@@ -5900,7 +5967,7 @@
         <v>18</v>
       </c>
       <c r="AX30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY30" t="n">
         <v>13</v>
@@ -5909,10 +5976,10 @@
         <v>3</v>
       </c>
       <c r="BA30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
@@ -6025,25 +6092,25 @@
         <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF31" t="n">
         <v>4</v>
       </c>
       <c r="AG31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH31" t="n">
         <v>7</v>
       </c>
       <c r="AI31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ31" t="n">
         <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL31" t="n">
         <v>28</v>
@@ -6052,19 +6119,19 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP31" t="n">
         <v>14</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
         <v>10</v>
@@ -6073,7 +6140,7 @@
         <v>10</v>
       </c>
       <c r="AU31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV31" t="n">
         <v>10</v>
@@ -6085,19 +6152,19 @@
         <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-23-2014-15</t>
+          <t>2014-11-23</t>
         </is>
       </c>
     </row>
